--- a/server/ContactInformation.xlsx
+++ b/server/ContactInformation.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -424,9 +424,20 @@
         <v>helloo!!</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Abh</v>
+      </c>
+      <c r="B3" t="str">
+        <v>abh@gmai.com</v>
+      </c>
+      <c r="C3" t="str">
+        <v>sbkkjs</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
   </ignoredErrors>
 </worksheet>
 </file>